--- a/Caxton/others/travel plan.xlsx
+++ b/Caxton/others/travel plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -653,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/Caxton/others/travel plan.xlsx
+++ b/Caxton/others/travel plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,18 @@
     <sheet name="芬兰" sheetId="6" r:id="rId6"/>
     <sheet name="塞舌尔" sheetId="7" r:id="rId7"/>
     <sheet name="迪拜" sheetId="8" r:id="rId8"/>
-    <sheet name="拉脱维亚" sheetId="9" r:id="rId9"/>
+    <sheet name="拉脱维亚三国" sheetId="9" r:id="rId9"/>
     <sheet name="葡萄牙" sheetId="10" r:id="rId10"/>
     <sheet name="以色列" sheetId="12" r:id="rId11"/>
     <sheet name="意大利" sheetId="13" r:id="rId12"/>
-    <sheet name="圣赛吧司点" sheetId="14" r:id="rId13"/>
+    <sheet name="san sebastian" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>alicante</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,46 @@
   </si>
   <si>
     <t>波尔图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilbao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYX hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akelarre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Napolis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGallery Palazzo Caracciolo Napoli</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +365,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +394,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -788,25 +834,94 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11">
+        <v>43556</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10">
+        <v>43591</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
+        <v>43591</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1209,7 +1324,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
